--- a/Apitest/OUTPUT/englishMails.xlsx
+++ b/Apitest/OUTPUT/englishMails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leger\OneDrive\Documents\UiPath\BulkQueueError\Apitest\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069D250-1085-46F1-B9D5-4A3451D363A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4E4B7-FBBD-46C3-9090-0C7CE15F4899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="4125" yWindow="1815" windowWidth="18000" windowHeight="9810" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>emails</x:t>
   </x:si>
@@ -41,6 +41,57 @@
   </x:si>
   <x:si>
     <x:t>emailSentiment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>premium@academia-mail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50% Off, 2 days only - “F. Mongo”: 1 new Mention in a paper uploaded to Academia by someone in Bloomington, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dear Franck,
+The name “F. Mongo” was mentioned in a paper by someone in Bloomington, United States that was recently discovered by Academia.
+Follow the link below to see all of your mentions:
+https://www.academia.edu/keypass/UkRUNUpWSFJ0SWN0NjZpQWI2aHNVTHFFUkNMaE4zS2FNVkJ6N3dvUmVEcz0tLXJBZmQyL3phek0yVkRDbFRMcmcwTVE9PQ==--06bae480a9dc926dcc99ddea5d97db45ef563ea6/t/mhjct-PyvPbTA-bj6823/upgrade?feature=name_mentions&amp;premium_discount_coupon=JCXSDFI&amp;trigger=new-name-mentions
+-----
+Follow the link below to disable these notifications:
+https://academia.edu/keypass/UkRUNUpWSFJ0SWN0NjZpQWI2aHNVTHFFUkNMaE4zS2FNVkJ6N3dvUmVEcz0tLXJBZmQyL3phek0yVkRDbFRMcmcwTVE9PQ==--06bae480a9dc926dcc99ddea5d97db45ef563ea6/t/mhjct-PyvPbTA-bj6823/confirm_unsubscribe/new_mentions
+Academia.edu, 580 California St., Suite 400, San Francisco, CA, 94104
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>en</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recommendations@explore.pinterest.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Balcon Amenagement, Habillage Mur Exterieur et autres recherches tendance</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    Balcon Amenagement
+    Habillage Mur Exterieur
+    Brise Vue Terrasse
+    Piscines De Rêve
+    Palissade Jardin
+    Parterre Devant Maison
+    Cuisine Extérieure Moderne
+    Mode Vintage Années 90
+    Projets De Bricoleur
+    Décorer Piscine Hors Sol
+Pinterest
+651 Brannan Street, San Francisco, CA, 94107
+    Centre d'aide: https://post.pinterest.com/f/a/gHoBfpT9dbCLHsw1Cl8RCQ~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2F_%2F_%2Fhelp%2F%3Fsource%3Demail_footer%26amp%3Butm_campaign%3Dtrending_searches%26amp%3Be_t%3D9e966ad02a654c81a83e81f4494c49aa%26amp%3Be_t_s%3Dfooter%26amp%3Butm_source%3D31%26amp%3Butm_medium%3D2031
+    Politique de confidentialité: https://post.pinterest.com/f/a/FpBST1K7bJXaMGrm2d5Ikw~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2F_%2F_%2Fpolicy%2Fprivacy-policy%2F
+    Conditions d'utilisation: https://post.pinterest.com/f/a/_oWlojLmso51_7zdqNtsjQ~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2F_%2F_%2Fpolicy%2Fterms-of-service%2F
+    Se désabonner: https://post.pinterest.com/f/a/ARqEBg3rAdiS1EduS42u-Q~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2Femail%2Funsubscribe%2F%3Fuser_id%3DNTQ3ODkxMjQ4MzI1NzQ1MTMz%26amp%3Bod%3DC6HtV%252BQ5pOBIYbFtab0OCmsinA2KVMIrDt9AY1OsZdIOtmtQqur5JWkfFqv%252BdmIw3mqRHSsGwbGKB5Aa0AIk25YPgol2RAapw0hQSc165%252FeoH3Yv06JkcxLywqSav9gPgujRonnDZy65xXaEaOXldR9Pyow9Sj9jFaiFJY%252FeWZ9gwOyACBGSQkt4rA7EqYU%252B%252BGfCfSMZe1TlIpViAkqEobKv0%252BGbrZG4SDBxtiUlM%252FHr2kfXpSrANoPaq5MRbeUBg2qI8yUNVa0fOjikRAD310cx2wtFym8uLuPxCUOa4kROswZo9IvITptjHyWhzOVejKntkSUVzaTAT5oT5qwBe9HFTcFhknu0bKIqasmG7C3Gy%252Bp7JvROC5Shj1vIfxBXfoiHwgKXgRnPbIn0fB4zQiTgts4pfPH9QzTMxY%252FfxG8LiBsdC2nm40RqP20bCfBz%26amp%3Butm_campaign%3Dtrending_searches%26amp%3Be_t%3D9e966ad02a654c81a83e81f4494c49aa%26amp%3Be_t_s%3Dfooter%26amp%3Butm_source%3D31%26amp%3Butm_medium%3D2031
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NONE</x:t>
   </x:si>
   <x:si>
     <x:t>edX@news.edx.org</x:t>
@@ -80,213 +131,7 @@
 141 Portland St. 9th Floor, Cambridge, MA 02139</x:t>
   </x:si>
   <x:si>
-    <x:t>en</x:t>
-  </x:si>
-  <x:si>
     <x:t>P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>messaging-digest-noreply@linkedin.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thierry and Surya Narayana sent new messages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vous avez  nouveau message
-.....................................
-Surya Narayana Korivipadu (Process Automation Developer | UiPath Advanced Certified | UiPath Robot Master)
-(https://www.linkedin.com/comm/in/surya-narayana-korivipadu-871031a3?trk=eml-msg_digest-body-view_profile&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-4-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fprofile%7Evanity%2Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D)
-Lire le message: https://www.linkedin.com/comm/messaging/thread/2-ODZhNGJlZmUtNTQwNC00YTA1LWE0NTctMmFiN2E2YzhjM2QzXzAxMA==/?trk=eml-msg_digest-body-reply_to_sender&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-8-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fmessaging%2Ethread&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D
-.....................................
-Thierry Jalet (Helping organizations deliver business impact through Intelligent Process Automation)
-(https://www.linkedin.com/comm/in/thierryjalet?trk=eml-msg_digest-body-view_profile&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-7-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fprofile%7Evanity%2Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D)
-Lire le message: https://www.linkedin.com/comm/messaging/thread/2-NjljZmY2ZmQtMTdiZC00NGU5LTlkNWUtOGEzMjEzMDFmOGVhXzAxMg==/?trk=eml-msg_digest-body-reply_to_sender&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-10-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fmessaging%2Ethread&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D
-.....................................
-Modifier la fréquence : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;t=lun&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=64&amp;m=unsub&amp;ts=freq&amp;eid=3ecr6y-ko0c77so-eg&amp;loid=AQGYGT1so5fr5QAAAXkUf8-hTVQqIFtSdrpwvE1S9Ygmvjdr4Dnt2XBAn0uhZxmgTccnzSNuZQPiD4rg-P7A34S9lQy-77oqCXxBsRM
-Se désinscrire : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;t=lun&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=63&amp;m=unsub&amp;ts=unsub&amp;eid=3ecr6y-ko0c77so-eg&amp;loid=AQG8VJscI7ZFqwAAAXkUf8-hQCK5GeighNz4HdYx4ElUgcqi1ky9smkSDGNa2zL4bcu7XEuydlmwXI_frUkwa2mvCNjs3m57LSHHkeY
-Aide : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=62&amp;m=footer&amp;ts=help&amp;articleId=67
-Vous recevez des e-mails de notifications de LinkedIn.
-Cet e-mail est destiné à Franck MONGO (Développeur RPA &amp; AI _xD83E__xDD16_ | Ingénieur Nucléaire).
-Découvrez pourquoi nous précisons ceci : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;articleId=4788
-© 2021 LinkedIn Ireland Unlimited Company, Wilton Plaza, Wilton Place, Dublin 2. LinkedIn est le nom commercial déposé de LinkedIn Ireland Unlimited Company. LinkedIn et le logo de LinkedIn sont des marques déposées de LinkedIn.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>english-digest-noreply@quora.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Is ADA (Cardano) ready for a huge breakout?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Franck's Digest
-Your Quora Digest
------
-Question: Is ADA (Cardano) ready for a huge breakout?
-Answer from Marius Kramer
-Actually yes, it’s possible.
-Cardano has done a good thing, actually two.
-2 weeks ago, Charles Hoskinson has announced that Cardano will launch a big marketing campaign with
-Read More: http://www.quora.com/Is-ADA-Cardano-ready-for-a-huge-breakout?top_ans=187091048
------
-Question: Why does Windows have DLLs while Mac has not even a single DLL?
-Answer from Garry Taylor
-DLL stands for “Dynamic link library”, and the Mac has these too, they just go by a different name.
-Pretty much all modern Operating Systems have dynamically linked libraries
-Read More: http://www.quora.com/Why-does-Windows-have-DLLs-while-Mac-has-not-even-a-single-DLL?top_ans=273446273
------
-Question: What can you do about a senior engineer who is suddenly unwilling to do extra work they used to do after being denied promotion?
-Answer from Miles Fidelman
-Assuming that you’re asking as their boss….
-1. It really depends a lot on what kind of “extra work” they used to be done, and under what circumstances.
-2. 
-1. We all go the e
-Read More: http://www.quora.com/What-can-you-do-about-a-senior-engineer-who-is-suddenly-unwilling-to-do-extra-work-they-used-to-do-after-being-denied-promotion?top_ans=260674967
------
-Question: What is the best crypto to hold for the next 3 years apart from Bitcoin and ETH?
-Answer from Jared Busby
-This is not financial advice. This is my personal opinion please do your own research.
-I won’t just recommend one crypto because:
- * I believe in diversification. You should
-Read More: http://www.quora.com/What-is-the-best-crypto-to-hold-for-the-next-3-years-apart-from-Bitcoin-and-ETH?top_ans=276355260
------
-Question: Is Angular more scalable than React? Is it better to build a large-scale application?
-Answer from Jérôme Cukier
-On paper both Angular and React are very powerful frameworks and typically, organizations chose one or the other because they have a long time commitment to either framework r
-Read More: http://www.quora.com/Is-Angular-more-scalable-than-React-Is-it-better-to-build-a-large-scale-application?top_ans=273989187
------
-Question: What makes Russian hackers so good?
-Answer from David Seidman
-Russian hackers are good for the same reason American, Chinese, Israeli, British, Australian, New Zealand and Canadian hackers are: their countries can afford it and they cons
-Read More: http://www.quora.com/What-makes-Russian-hackers-so-good?top_ans=116230122
------
-Question: Does Ethereum have a future? What will Ethereum be worth in 2030?
-Answer from Vitalik Buterin
-Ethereum price started in 2021 at $735.34. Today, Ethereum traded at $2,443.05, so the price increased by 96% from the beginning of the year. Ethereum price at the end of 2021
-Read More: http://www.quora.com/Does-Ethereum-have-a-future-What-will-Ethereum-be-worth-in-2030?top_ans=276750150
------
-Question: Which programming language would you recommend a beginner to learn first?
-Answer from Chris Nash
-This is difficult to answer, because I don’t know what you want to accomplish with programming.
-For example, if you just want to write quick little utilities that will rarely
-Read More: http://www.quora.com/Which-programming-language-would-you-recommend-a-beginner-to-learn-first?top_ans=236479958
------
-Question: I have a 400GB HDD. When connected to my computer, Windows reads it as a 2TB drive. What could cause this?
-Answer from Matthew Schoberg
-Where did you get the 400gb hard drive? If you got it used or second hand like off of Craigslist, it’s possible that the seller didn’t realize how big the drive was and sold i
-Read More: http://www.quora.com/I-have-a-400GB-HDD-When-connected-to-my-computer-Windows-reads-it-as-a-2TB-drive-What-could-cause-this?top_ans=218377576
------
-Question: Why does test automation need machine learning?
-Answer from Lena Van de Berg
-From Google’s language translation app to self-driving cars, Machine learning has bought us a new generation of smart automated software testing tools. Right now a whole spect
-Read More: http://www.quora.com/Why-does-test-automation-need-machine-learning?top_ans=276066631
------
------
-To control which emails we send you, visit: https://www.quora.com/qemail/tc?aoid&amp;aoty=14&amp;aty=4&amp;cp=0&amp;et=2&amp;id=943d9074f56a49b2a8b953e670d3a7c3&amp;uid=1E0wfZgw7kr
-To unsubscribe from this type of email, visit: http://www.quora.com/email_optout/qemail_unsubscribe?email_track_id=943d9074f56a49b2a8b953e670d3a7c3&amp;t=1619546092605181&amp;token=24c38f342fad606bf01a24161c227ce7794e093e324170514f4c93444bfa80610c8f0ed953f6c87e7276375f6d8101e02f346d40ec9031066863cc7bc5a94860&amp;type=2&amp;uid=298800788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>customerservice@richdad.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Einstein's thoughts on money and Bitcoin?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">What does E=mc2 mean when it comes to money?
-I’ll get to Einstein’s thought on this in one second, but first,
-listen to what Lyn Alden said,
-_I promise the money is like the Phoenix. A new money will rise from
-the ashes._
-A new money…
-Now listen to what Einstein said and I’ll explain how it relates to
-money,
-_"Energy equals mass times the speed of light squared."_
-_ _
-The only reason light moves at the speed it does is because it has no
-mass.
-So, what does E=mc2 mean regarding money?
-Learn More About the New Money
-[ https://track.creatensend.com/track/click?linkData=1-d139eyJsaW5rIjoiaHR0cHM6XC9cL3N0dWR5LnJpY2hkYWQuY29tXC9NT05USExZLU1FTUJFUlNISVAtT0ZGRVIiLCJuZXdzbGV0dGVySWQiOiI3NjYiLCJzdWJzY3JpYmVySWQiOjkzNjA4OSwiZG9tYWluIjoicmljaGRhZDciLCJ0aW1lIjoxNjE5NTQ0OTQ5LCJkZWwiOjgsInNlbmRlciI6MX0&amp;p=1 ]
-Gold has mass. Dollars are already becoming useless and dying.
-Mass slows things down.
-And as Lyn says, “a new money will rise from the ashes.” Which
-when you combine with Einstein’s, it will be faster with no mass…
-Leads me to believe…
-Bitcoin and cyber currencies are rising out of the death of the dollar
-and moving faster and faster because they are money _without _mass.
-I Need to learn how to protect myself from the dying dollar
-[ https://track.creatensend.com/track/click?linkData=1-d139eyJsaW5rIjoiaHR0cHM6XC9cL3N0dWR5LnJpY2hkYWQuY29tXC9NT05USExZLU1FTUJFUlNISVAtT0ZGRVIiLCJuZXdzbGV0dGVySWQiOiI3NjYiLCJzdWJzY3JpYmVySWQiOjkzNjA4OSwiZG9tYWluIjoicmljaGRhZDciLCJ0aW1lIjoxNjE5NTQ0OTQ5LCJkZWwiOjgsInNlbmRlciI6MX0&amp;p=1 ]
-Think about this. 
-If Bitcoin is moving at the speed of light: E=mc2 …how fast are you
-moving?
-Are old ideas about money slowing you down?
-The new money is here,
-Robert Kiyosaki 
-P.S. You can learn about Bitcoin and Crypto-Investing right here.
-[ https://track.creatensend.com/track/click?linkData=1-d139eyJsaW5rIjoiaHR0cHM6XC9cL3N0dWR5LnJpY2hkYWQuY29tXC9NT05USExZLU1FTUJFUlNISVAtT0ZGRVIiLCJuZXdzbGV0dGVySWQiOiI3NjYiLCJzdWJzY3JpYmVySWQiOjkzNjA4OSwiZG9tYWluIjoicmljaGRhZDciLCJ0aW1lIjoxNjE5NTQ0OTQ5LCJkZWwiOjgsInNlbmRlciI6MX0&amp;p=1 ]
- [ https://track.creatensend.com/track/click?linkData=1-d139eyJsaW5rIjoiaHR0cHM6XC9cL3N0dWR5LnJpY2hkYWQuY29tXC9NT05USExZLU1FTUJFUlNISVAtT0ZGRVIiLCJuZXdzbGV0dGVySWQiOiI3NjYiLCJzdWJzY3JpYmVySWQiOjkzNjA4OSwiZG9tYWluIjoicmljaGRhZDciLCJ0aW1lIjoxNjE5NTQ0OTQ5LCJkZWwiOjgsInNlbmRlciI6MX0&amp;p=1 ]
-Investing can have large potential rewards, but it can also have large
-potential risks. You must be aware of the risks and be willing to
-accept them in order to invest in financial instruments, including
-stocks, options, futures, real estate and entrepreneurship. By reading
-this, you agree to all of the following: You understand this to be an
-expression of opinions and not professional advice. You are solely
-responsible for the use of any content and hold Rich Dad Operating
-Company, and all partners, members and affiliates harmless in any
-event or claim.
-If you purchase anything through a link in this email, you should
-assume that we have an affiliate relationship with the company
-providing the product or service that you purchase, and that we will
-be paid in some way. We recommend that you do your own independent
-research before purchasing anything.
-The Rich Dad Company, 
-4330 N. Civic Center Plaza Suite 100, Scottsdale, AZ, US, 85251
-To update or remove your contact information please Manage Your
-Subscription
-[ https://track.creatensend.com/track/click?linkData=1-8d34eyJsaW5rIjoidW5zdWJzY3JpYmUiLCJuZXdzbGV0dGVySWQiOjc2Niwic3Vic2NyaWJlcklkIjo5MzYwODksImRvbWFpbiI6InJpY2hkYWQ3IiwidGltZSI6MTYxOTU0NDk0OSwiZGVsIjo4LCJlbWFpbCI6Im1vbmdvZnJhbmNrMjAwNkBnbWFpbC5jb20iLCJvbmVfY2xpY2siOjB9&amp;p=1 ].
-[ https://track.creatensend.com/track/click?linkData=1-eb43eyJsaW5rIjoiY2xpY2siLCJuZXdzbGV0dGVySWQiOjc2Niwic3Vic2NyaWJlcklkIjo5MzYwODksImRvbWFpbiI6InJpY2hkYWQ3IiwidGltZSI6MTYxOTU0NDk0OSwiZGVsIjo4LCJlbWFpbCI6Im1vbmdvZnJhbmNrMjAwNkBnbWFpbC5jb20ifQ&amp;p=1 ]
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>failed-payments@wayscript.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Your WayScript, Inc. payment was unsuccessful again</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WayScript, Inc.  (https://wayscript.com)
-WayScript, Inc.
-$20.00 payment to WayScript, Inc. was unsuccessful We attempted to charge your Mastercard Identity Check (https://stripe.com/docs/payments/3d-secure) ending in 6164 for your WayScript, Inc. subscription again, but were unsuccessful. Please update your billing information. Update billing information (https://wayscript.com/settings) Questions? Contact us at billing@wayscript.com (billing@wayscript.com)
-Powered by    stripe logo  (https://stripe.com)   |     Learn more about Stripe Invoicing   (https://stripe.com/invoicing)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NEU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no-reply@people-doc.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New sign in detected on your MyPeopleDoc account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Hello,
-We just detected a sign in to your MyPeopleDoc eVault from an unusual location.
-Why you are receiving this message:
-There was a sign in on your MyPeopleDoc account from a network environment (IP address) that is different from your usual location.
-This could happen when the device you’re using is signing in to a network for the first time (e.g., a new Wi-Fi network).
-When: 2021-04-27T20:49:37
-Operating System: Windows 10
-Browser: Chrome 90.0.4430
-IP address: 2a01:e0a:4ee:6d20:64b7:88ee:100a:86e6
-If this was you, you can ignore this message.
-If you believe someone else has accessed your account, please change your password by clicking here : https://www.mypeopledoc.com/#/recover.
-For more information, please read the following article in our Knowledge Base.
-New connection alert system to the MyPeopleDoc electronic vault (https://support.mypeopledoc.com/hc/en-us/articles/360020692340-New-connection-alert-system-to-the-MyPeopleDoc-electronic-vault )
-If you have any questions, don’t hesitate to reach out to our support team.
-For a reinforced level of security, we strongly recommend that you activate 2-factor authentication (via the reception of an SMS on your mobile phone),
-for this, please check the article “Secure your account with the 2-factor authentication steps” on our Support page." (https://support.mypeopledoc.com/hc/en-us/articles/115001316011-Secure-your-account-with-the-2-step-verification)
-Data security is everyone’s responsibility.
------------------------------
-Need help? Visit http://support.mypeopledoc.com
-</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -350,7 +195,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="64">
+  <x:cellStyleXfs count="34">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -362,96 +207,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -905,112 +660,39 @@
       <x:c r="E2" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F2" s="6" t="s"/>
-      <x:c r="G2" s="6" t="s"/>
-      <x:c r="H2" s="6" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="6" t="s"/>
-      <x:c r="B3" s="6" t="s"/>
-      <x:c r="C3" s="10" t="s"/>
-      <x:c r="D3" s="7" t="s"/>
-      <x:c r="E3" s="6" t="s"/>
-      <x:c r="F3" s="6" t="s"/>
-      <x:c r="G3" s="6" t="s"/>
-      <x:c r="H3" s="6" t="s"/>
+      <x:c r="A3" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="6" t="s"/>
-      <x:c r="B4" s="6" t="s"/>
-      <x:c r="C4" s="10" t="s"/>
-      <x:c r="D4" s="7" t="s"/>
-      <x:c r="F4" s="6" t="s"/>
-      <x:c r="G4" s="6" t="s"/>
-      <x:c r="H4" s="6" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s">
+      <x:c r="A4" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D6" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E6" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="A8" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B8" s="6" t="s">
+      <x:c r="E4" s="6" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="C8" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E8" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="A10" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B10" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C10" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B12" s="6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C12" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D12" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E12" s="6" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
